--- a/team/recettes/irish coffee.xlsx
+++ b/team/recettes/irish coffee.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salma\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salma\IdeaProjects\2022-groupe01\team\recettes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D958CCB4-B2E9-40C9-ACCD-E1197B4EAD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A6C908-AF86-4906-9901-67759DCCFE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7724952-43C8-47F7-A3F5-405D4B0D4D9E}"/>
+    <workbookView xWindow="10884" yWindow="4008" windowWidth="13548" windowHeight="8880" xr2:uid="{F7724952-43C8-47F7-A3F5-405D4B0D4D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -67,30 +67,15 @@
     <t>boisson</t>
   </si>
   <si>
-    <t>whisky</t>
-  </si>
-  <si>
     <t>5cl</t>
   </si>
   <si>
-    <t>sucre en poudre</t>
-  </si>
-  <si>
     <t>2c.à.c</t>
   </si>
   <si>
-    <t>cacao</t>
-  </si>
-  <si>
     <t>_</t>
   </si>
   <si>
-    <t>café</t>
-  </si>
-  <si>
-    <t>crème chantilly</t>
-  </si>
-  <si>
     <t>Deux astuces avant de commencer : le whiskey sucré et le café doivent être à la même température, c'est à dire très chauds.</t>
   </si>
   <si>
@@ -101,6 +86,21 @@
   </si>
   <si>
     <t>Ajoutez alors la chantilly, qui va former la troisième couche. Eventuellement, saupoudrez de cacao non sucré. Servez avec une paille.</t>
+  </si>
+  <si>
+    <t>Whisky</t>
+  </si>
+  <si>
+    <t>Sucre blanc</t>
+  </si>
+  <si>
+    <t>Cacao, non sucré, poudre soluble</t>
+  </si>
+  <si>
+    <t>Café, moulu</t>
+  </si>
+  <si>
+    <t>Crème chantilly, sous pression, UHT</t>
   </si>
 </sst>
 </file>
@@ -473,10 +473,13 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -506,10 +509,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -521,48 +524,48 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -575,12 +578,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -730,15 +730,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02A8C2FA-D76F-4E21-8158-27A0065D5B06}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A459F04-D98D-4241-B975-6BAAF59BDE00}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="ea62a05a-5154-454e-812a-649395124f9d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -762,17 +773,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A459F04-D98D-4241-B975-6BAAF59BDE00}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02A8C2FA-D76F-4E21-8158-27A0065D5B06}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="ea62a05a-5154-454e-812a-649395124f9d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>